--- a/data/quiz230925_tmp.xlsx
+++ b/data/quiz230925_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="307">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -524,6 +524,414 @@
   </si>
   <si>
     <t>조성진</t>
+  </si>
+  <si>
+    <t>wlsgml9808@naver.com</t>
+  </si>
+  <si>
+    <t>이진희</t>
+  </si>
+  <si>
+    <t>se0jin1112@naver.com</t>
+  </si>
+  <si>
+    <t>김서진</t>
+  </si>
+  <si>
+    <t>useojin00@gmail.com</t>
+  </si>
+  <si>
+    <t>유서진</t>
+  </si>
+  <si>
+    <t>hsm3932@naver.com</t>
+  </si>
+  <si>
+    <t>일본학과</t>
+  </si>
+  <si>
+    <t>허선민</t>
+  </si>
+  <si>
+    <t>dnjsgudwns0527@naver.com</t>
+  </si>
+  <si>
+    <t>원형준</t>
+  </si>
+  <si>
+    <t>jdh874788@gmail.com</t>
+  </si>
+  <si>
+    <t>주다현</t>
+  </si>
+  <si>
+    <t>chh040817@naver.com</t>
+  </si>
+  <si>
+    <t>차현화</t>
+  </si>
+  <si>
+    <t>yunbi0405@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠it</t>
+  </si>
+  <si>
+    <t>최윤비</t>
+  </si>
+  <si>
+    <t>bae001909@naver.com</t>
+  </si>
+  <si>
+    <t>배윤진</t>
+  </si>
+  <si>
+    <t>sungmin6674@gmail.com</t>
+  </si>
+  <si>
+    <t>금융재무학과</t>
+  </si>
+  <si>
+    <t>방성민</t>
+  </si>
+  <si>
+    <t>birr040511@naver.com</t>
+  </si>
+  <si>
+    <t>오준서</t>
+  </si>
+  <si>
+    <t>machippo99@gmail.com</t>
+  </si>
+  <si>
+    <t>제동재</t>
+  </si>
+  <si>
+    <t>rbgjs65@naver.com</t>
+  </si>
+  <si>
+    <t>생명과학과</t>
+  </si>
+  <si>
+    <t>김규헌</t>
+  </si>
+  <si>
+    <t>y_k1017@naver.com</t>
+  </si>
+  <si>
+    <t>청각학과</t>
+  </si>
+  <si>
+    <t>이윤경</t>
+  </si>
+  <si>
+    <t>jinkyo040119@naver.com</t>
+  </si>
+  <si>
+    <t>김진교</t>
+  </si>
+  <si>
+    <t>codmswldhs@naver.com</t>
+  </si>
+  <si>
+    <t>언어병리학과</t>
+  </si>
+  <si>
+    <t>김채은</t>
+  </si>
+  <si>
+    <t>bee9588@naver.com</t>
+  </si>
+  <si>
+    <t>민서윤</t>
+  </si>
+  <si>
+    <t>lia129@naver.com</t>
+  </si>
+  <si>
+    <t>노효은</t>
+  </si>
+  <si>
+    <t>su12ki24@gmail.com</t>
+  </si>
+  <si>
+    <t>박지숙</t>
+  </si>
+  <si>
+    <t>hjp0107@naver.com</t>
+  </si>
+  <si>
+    <t>컨텐츠it학과</t>
+  </si>
+  <si>
+    <t>홍진표</t>
+  </si>
+  <si>
+    <t>gustn838@gmail.com</t>
+  </si>
+  <si>
+    <t>박현수</t>
+  </si>
+  <si>
+    <t>sejung2854@gmail.com</t>
+  </si>
+  <si>
+    <t>김세중</t>
+  </si>
+  <si>
+    <t>h20206619@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>신현경</t>
+  </si>
+  <si>
+    <t>ghkwls336@naver.com</t>
+  </si>
+  <si>
+    <t>장다온</t>
+  </si>
+  <si>
+    <t>minge0407@naver.com</t>
+  </si>
+  <si>
+    <t>이민지</t>
+  </si>
+  <si>
+    <t>junz0young@gmail.com</t>
+  </si>
+  <si>
+    <t>배준영</t>
+  </si>
+  <si>
+    <t>eunjae7113@naver.com</t>
+  </si>
+  <si>
+    <t>전은재</t>
+  </si>
+  <si>
+    <t>skdud5438@naver.com</t>
+  </si>
+  <si>
+    <t>곽나영</t>
+  </si>
+  <si>
+    <t>5614bok@naver.com</t>
+  </si>
+  <si>
+    <t>안세진</t>
+  </si>
+  <si>
+    <t>phanbe1@naver.com</t>
+  </si>
+  <si>
+    <t>박한비</t>
+  </si>
+  <si>
+    <t>leaf0113@naver.com</t>
+  </si>
+  <si>
+    <t>김남은</t>
+  </si>
+  <si>
+    <t>dnjstjsdn02@naver.com</t>
+  </si>
+  <si>
+    <t>원선우</t>
+  </si>
+  <si>
+    <t>jennybee0403@naver.com</t>
+  </si>
+  <si>
+    <t>백재현</t>
+  </si>
+  <si>
+    <t>jeongsuyeon749@gmail.com</t>
+  </si>
+  <si>
+    <t>정수연</t>
+  </si>
+  <si>
+    <t>cici030728@gmail.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학과</t>
+  </si>
+  <si>
+    <t>박태양</t>
+  </si>
+  <si>
+    <t>20232327@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사회복지학부 </t>
+  </si>
+  <si>
+    <t>박소희</t>
+  </si>
+  <si>
+    <t>seoarin09@gmail.com</t>
+  </si>
+  <si>
+    <t>서아린</t>
+  </si>
+  <si>
+    <t>amyson0622@naver.com</t>
+  </si>
+  <si>
+    <t>손진아</t>
+  </si>
+  <si>
+    <t>kimcciman1@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지능융합학과</t>
+  </si>
+  <si>
+    <t>김원빈</t>
+  </si>
+  <si>
+    <t>moyapple2431@naver.com</t>
+  </si>
+  <si>
+    <t>조윤서</t>
+  </si>
+  <si>
+    <t>20236706@hallym.com</t>
+  </si>
+  <si>
+    <t>인공지능융합</t>
+  </si>
+  <si>
+    <t>김가빈</t>
+  </si>
+  <si>
+    <t>popoq2004@naver.com</t>
+  </si>
+  <si>
+    <t>박신비</t>
+  </si>
+  <si>
+    <t>haohao873@naver.com</t>
+  </si>
+  <si>
+    <t>안지연</t>
+  </si>
+  <si>
+    <t>onjng0918@gmail.com</t>
+  </si>
+  <si>
+    <t>오윤정</t>
+  </si>
+  <si>
+    <t>ga89193234@gmail.com</t>
+  </si>
+  <si>
+    <t>김경아</t>
+  </si>
+  <si>
+    <t>dmskr0408@gmail.com</t>
+  </si>
+  <si>
+    <t>오은탁</t>
+  </si>
+  <si>
+    <t>soc07045@naver.com</t>
+  </si>
+  <si>
+    <t>이윤교</t>
+  </si>
+  <si>
+    <t>dllight2001@gmail.com</t>
+  </si>
+  <si>
+    <t>김들빛</t>
+  </si>
+  <si>
+    <t>dlrnjsfh1@naver.com</t>
+  </si>
+  <si>
+    <t>스마트iot</t>
+  </si>
+  <si>
+    <t>이권로</t>
+  </si>
+  <si>
+    <t>nihao1375@naver.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠전공</t>
+  </si>
+  <si>
+    <t>황지훈</t>
+  </si>
+  <si>
+    <t>hmuc1smoker@gmail.com</t>
+  </si>
+  <si>
+    <t>스마트IOT</t>
+  </si>
+  <si>
+    <t>서정원</t>
+  </si>
+  <si>
+    <t>lgh4787@gmail.com</t>
+  </si>
+  <si>
+    <t>이가현</t>
+  </si>
+  <si>
+    <t>happle0313@naver.com</t>
+  </si>
+  <si>
+    <t>김희경</t>
+  </si>
+  <si>
+    <t>seonyeong0429@gmail.com</t>
+  </si>
+  <si>
+    <t>노선영</t>
+  </si>
+  <si>
+    <t>sally4417776@naver.com</t>
+  </si>
+  <si>
+    <t>안세연</t>
+  </si>
+  <si>
+    <t>junesumin12@naver.com</t>
+  </si>
+  <si>
+    <t>전수민</t>
+  </si>
+  <si>
+    <t>xpo7777@naver.com</t>
+  </si>
+  <si>
+    <t>박찬주</t>
+  </si>
+  <si>
+    <t>gksthgus3322@naver.com</t>
+  </si>
+  <si>
+    <t>간호</t>
+  </si>
+  <si>
+    <t>한소현</t>
+  </si>
+  <si>
+    <t>ucastlemoon@naver.com</t>
+  </si>
+  <si>
+    <t>반도체 디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>신성문</t>
+  </si>
+  <si>
+    <t>wtk0116@naver.com</t>
+  </si>
+  <si>
+    <t>원태경</t>
   </si>
 </sst>
 </file>
@@ -2972,6 +3380,2466 @@
         <v>30</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" s="2">
+        <v>45194.823789664355</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2.0173728E7</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2">
+        <v>45194.82574817129</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2.0233806E7</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2">
+        <v>45194.82890648148</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2.0233942E7</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2">
+        <v>45194.83437138889</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2.0221637E7</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I57" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2">
+        <v>45194.848503125</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2.0233941E7</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I58" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2">
+        <v>45194.84873138889</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" s="3">
+        <v>2.0233047E7</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2">
+        <v>45194.85223552083</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2.0233962E7</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2">
+        <v>45194.86639008102</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D61" s="3">
+        <v>2.019527E7</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2">
+        <v>45194.87224215278</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="3">
+        <v>2.0193712E7</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2">
+        <v>45194.88358042824</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D63" s="3">
+        <v>2.0232963E7</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I63" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2">
+        <v>45194.88809972222</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2.0232832E7</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2">
+        <v>45194.893278159725</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" s="3">
+        <v>2.0236164E7</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I65" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2">
+        <v>45194.90374743055</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D66" s="3">
+        <v>2.0203501E7</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I66" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2">
+        <v>45194.90807609954</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D67" s="3">
+        <v>2.0203946E7</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I67" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2">
+        <v>45194.913357094905</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="3">
+        <v>2.0236609E7</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I68" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2">
+        <v>45194.91766846065</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69" s="3">
+        <v>2.0213925E7</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I69" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2">
+        <v>45194.92801815972</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D70" s="3">
+        <v>2.0233925E7</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I70" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2">
+        <v>45194.930379178244</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" s="3">
+        <v>2.0232716E7</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I71" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2">
+        <v>45194.93372966435</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" s="3">
+        <v>2.0232821E7</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2">
+        <v>45194.94167670139</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D73" s="3">
+        <v>2.0205277E7</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I73" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2">
+        <v>45194.94699582176</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" s="3">
+        <v>2.0212417E7</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I74" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2">
+        <v>45194.961424548615</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="3">
+        <v>2.019231E7</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2">
+        <v>45194.96203539352</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D76" s="3">
+        <v>2.0206619E7</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I76" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2">
+        <v>45194.963677175925</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D77" s="3">
+        <v>2.0236287E7</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I77" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2">
+        <v>45194.96710978009</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" s="3">
+        <v>2.0212126E7</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I78" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2">
+        <v>45194.96810982639</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D79" s="3">
+        <v>2.0231044E7</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I79" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2">
+        <v>45194.973371875</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" s="3">
+        <v>2.0236772E7</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I80" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2">
+        <v>45194.98218107639</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C81" s="3">
+        <v>2.0232803E7</v>
+      </c>
+      <c r="D81" s="3">
+        <v>2.0232803E7</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I81" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2">
+        <v>45194.98369923611</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D82" s="3">
+        <v>2.0233525E7</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I82" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N82" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2">
+        <v>45194.98848064815</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D83" s="3">
+        <v>2.0236244E7</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I83" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2">
+        <v>45195.03271083333</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D84" s="3">
+        <v>2.0231203E7</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I84" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2">
+        <v>45195.036937199075</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D85" s="3">
+        <v>2.0225196E7</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I85" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2">
+        <v>45195.05770506944</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D86" s="3">
+        <v>2.0236249E7</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N86" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2">
+        <v>45195.07009190972</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D87" s="3">
+        <v>2.023629E7</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I87" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N87" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2">
+        <v>45195.10402733796</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D88" s="3">
+        <v>2.0235175E7</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N88" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2">
+        <v>45195.37901209491</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D89" s="3">
+        <v>2.0232327E7</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I89" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2">
+        <v>45195.468744004625</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D90" s="3">
+        <v>2.0202332E7</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I90" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2">
+        <v>45195.47003646991</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D91" s="3">
+        <v>2.0223825E7</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I91" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2">
+        <v>45195.48496258102</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D92" s="3">
+        <v>2.0226715E7</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I92" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2">
+        <v>45195.498150995365</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D93" s="3">
+        <v>2.0221729E7</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I93" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2">
+        <v>45195.504743530095</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D94" s="3">
+        <v>2.0236706E7</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I94" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2">
+        <v>45195.53867034722</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D95" s="3">
+        <v>2.0236239E7</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I95" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2">
+        <v>45195.55671979167</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D96" s="3">
+        <v>2.0231525E7</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I96" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N96" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2">
+        <v>45195.556861944446</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D97" s="3">
+        <v>2.0232338E7</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I97" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N97" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2">
+        <v>45195.57793315972</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D98" s="3">
+        <v>2.0231007E7</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I98" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N98" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2">
+        <v>45195.58578988426</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D99" s="3">
+        <v>2.0235208E7</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I99" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M99" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2">
+        <v>45195.598923425925</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D100" s="3">
+        <v>2.0193828E7</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I100" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2">
+        <v>45195.6016777662</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D101" s="3">
+        <v>2.0205129E7</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I101" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2">
+        <v>45195.62190572917</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D102" s="3">
+        <v>2.0217148E7</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I102" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2">
+        <v>45195.63179738426</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D103" s="3">
+        <v>2.0172586E7</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I103" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M103" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2">
+        <v>45195.64321796296</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D104" s="3">
+        <v>2.0217146E7</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I104" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M104" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2">
+        <v>45195.64411675926</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D105" s="3">
+        <v>2.0232999E7</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I105" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M105" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2">
+        <v>45195.650339444444</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D106" s="3">
+        <v>2.0202945E7</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I106" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N106" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2">
+        <v>45195.65161221065</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D107" s="3">
+        <v>2.0236235E7</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I107" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M107" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2">
+        <v>45195.65596371528</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D108" s="3">
+        <v>2.0236257E7</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I108" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M108" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2">
+        <v>45195.6593922801</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D109" s="3">
+        <v>2.0236289E7</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I109" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N109" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2">
+        <v>45195.66383773148</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D110" s="3">
+        <v>2.0212623E7</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I110" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M110" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2">
+        <v>45195.66961423611</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D111" s="3">
+        <v>2.0236303E7</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I111" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L111" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M111" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2">
+        <v>45195.672230219905</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D112" s="3">
+        <v>2.020333E7</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I112" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L112" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M112" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2">
+        <v>45195.68820858796</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C113" s="3">
+        <v>2.0182545E7</v>
+      </c>
+      <c r="D113" s="3">
+        <v>2.0182545E7</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I113" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N113" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data/quiz230925_tmp.xlsx
+++ b/data/quiz230925_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="381">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -932,6 +932,228 @@
   </si>
   <si>
     <t>원태경</t>
+  </si>
+  <si>
+    <t>kimys236714@gmail.com</t>
+  </si>
+  <si>
+    <t>김용석</t>
+  </si>
+  <si>
+    <t>rla00604@gmail.com</t>
+  </si>
+  <si>
+    <t>김수연</t>
+  </si>
+  <si>
+    <t>jw011400@naver.com</t>
+  </si>
+  <si>
+    <t>안정우</t>
+  </si>
+  <si>
+    <t>cyurim3@gmail.com</t>
+  </si>
+  <si>
+    <t>최유림</t>
+  </si>
+  <si>
+    <t>a40432708@gmail.com</t>
+  </si>
+  <si>
+    <t>송준영</t>
+  </si>
+  <si>
+    <t>rlaeogus0704@naver.com</t>
+  </si>
+  <si>
+    <t>김대현</t>
+  </si>
+  <si>
+    <t>jungjukim0227@gmail.com</t>
+  </si>
+  <si>
+    <t>김정주</t>
+  </si>
+  <si>
+    <t>ysyscome@naver.com</t>
+  </si>
+  <si>
+    <t>김영서</t>
+  </si>
+  <si>
+    <t>qwerwer2551@naver.com</t>
+  </si>
+  <si>
+    <t>김경민</t>
+  </si>
+  <si>
+    <t>blleuey@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터테크</t>
+  </si>
+  <si>
+    <t>이예진</t>
+  </si>
+  <si>
+    <t>bsihyeon0707@gmail.com</t>
+  </si>
+  <si>
+    <t>박시현</t>
+  </si>
+  <si>
+    <t>tlswnals04@naver.com</t>
+  </si>
+  <si>
+    <t>신주민</t>
+  </si>
+  <si>
+    <t>rcn214@naver.com</t>
+  </si>
+  <si>
+    <t>김제승</t>
+  </si>
+  <si>
+    <t>impact0219@naver.com</t>
+  </si>
+  <si>
+    <t>김서언</t>
+  </si>
+  <si>
+    <t>k00e0096@naver.com</t>
+  </si>
+  <si>
+    <t>임민지</t>
+  </si>
+  <si>
+    <t>choims9064@gmail.com</t>
+  </si>
+  <si>
+    <t>최민서</t>
+  </si>
+  <si>
+    <t>ohj09170@naver.com</t>
+  </si>
+  <si>
+    <t>미디어스쿨</t>
+  </si>
+  <si>
+    <t>오현진</t>
+  </si>
+  <si>
+    <t>ckckguswns@naver.com</t>
+  </si>
+  <si>
+    <t>사회학과</t>
+  </si>
+  <si>
+    <t>차현준</t>
+  </si>
+  <si>
+    <t>bluejjun619@naver.com</t>
+  </si>
+  <si>
+    <t>윤영준</t>
+  </si>
+  <si>
+    <t>citchchache@gmail.com</t>
+  </si>
+  <si>
+    <t>공병우</t>
+  </si>
+  <si>
+    <t>xw2809@naver.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠</t>
+  </si>
+  <si>
+    <t>이규빈</t>
+  </si>
+  <si>
+    <t>lsjlol1264@naver.com</t>
+  </si>
+  <si>
+    <t>이세진</t>
+  </si>
+  <si>
+    <t>rhguswo324@naver.com</t>
+  </si>
+  <si>
+    <t>고현재</t>
+  </si>
+  <si>
+    <t>pjw4063@naver.com</t>
+  </si>
+  <si>
+    <t>박지원</t>
+  </si>
+  <si>
+    <t>ksrkatie@naver.com</t>
+  </si>
+  <si>
+    <t>권소린</t>
+  </si>
+  <si>
+    <t>qazx429@naver.com</t>
+  </si>
+  <si>
+    <t>김민서</t>
+  </si>
+  <si>
+    <t>zo267869@naver.com</t>
+  </si>
+  <si>
+    <t>황태용</t>
+  </si>
+  <si>
+    <t>eunhorui1029@gmail.com</t>
+  </si>
+  <si>
+    <t>조은호</t>
+  </si>
+  <si>
+    <t>dyseo0303@gmail.com</t>
+  </si>
+  <si>
+    <t>서동영</t>
+  </si>
+  <si>
+    <t>kq872@naver.com</t>
+  </si>
+  <si>
+    <t>이원상</t>
+  </si>
+  <si>
+    <t>siyun8477@gmail.com</t>
+  </si>
+  <si>
+    <t>김시윤</t>
+  </si>
+  <si>
+    <t>chlgpals2507@naver.com</t>
+  </si>
+  <si>
+    <t>최혜민</t>
+  </si>
+  <si>
+    <t>sdg93712426@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>신동건</t>
+  </si>
+  <si>
+    <t>cheeseru0808@naver.com</t>
+  </si>
+  <si>
+    <t>인문학과</t>
+  </si>
+  <si>
+    <t>김민선</t>
   </si>
 </sst>
 </file>
@@ -5840,6 +6062,1400 @@
         <v>22</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2">
+        <v>45195.702914699075</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D114" s="3">
+        <v>2.0236714E7</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I114" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N114" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2">
+        <v>45195.710346064814</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D115" s="3">
+        <v>2.0233608E7</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I115" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L115" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M115" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2">
+        <v>45195.71837407407</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D116" s="3">
+        <v>2.0235202E7</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I116" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L116" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N116" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2">
+        <v>45195.72405599537</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" s="3">
+        <v>2.0222143E7</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I117" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L117" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N117" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2">
+        <v>45195.72454517361</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D118" s="3">
+        <v>2.0191218E7</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I118" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L118" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M118" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2">
+        <v>45195.73744181713</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D119" s="3">
+        <v>2.0193604E7</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I119" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L119" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M119" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2">
+        <v>45195.76010829861</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D120" s="3">
+        <v>2.0232318E7</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I120" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L120" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N120" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2">
+        <v>45195.768342372685</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D121" s="3">
+        <v>2.0236713E7</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I121" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L121" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N121" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2">
+        <v>45195.79314094907</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D122" s="3">
+        <v>2.0236707E7</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I122" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L122" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M122" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2">
+        <v>45195.818547800925</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D123" s="3">
+        <v>2.0203235E7</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I123" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L123" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M123" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2">
+        <v>45195.82582706018</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D124" s="3">
+        <v>2.0235167E7</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I124" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L124" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N124" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2">
+        <v>45195.8671034838</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D125" s="3">
+        <v>2.023674E7</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I125" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L125" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M125" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2">
+        <v>45195.88199415509</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D126" s="3">
+        <v>2.0232932E7</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I126" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L126" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N126" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2">
+        <v>45195.88881290509</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D127" s="3">
+        <v>2.0236218E7</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I127" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L127" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N127" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2">
+        <v>45195.891972349535</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D128" s="3">
+        <v>2.0202355E7</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I128" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L128" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N128" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2">
+        <v>45195.90758339121</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D129" s="3">
+        <v>2.0236297E7</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I129" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L129" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N129" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2">
+        <v>45195.90790276621</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D130" s="3">
+        <v>2.0232555E7</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I130" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L130" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M130" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2">
+        <v>45195.91515111111</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D131" s="3">
+        <v>2.0192233E7</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I131" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L131" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M131" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2">
+        <v>45195.91549881945</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D132" s="3">
+        <v>2.0226758E7</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I132" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L132" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M132" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2">
+        <v>45195.93468885416</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D133" s="3">
+        <v>2.0235111E7</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I133" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L133" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M133" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2">
+        <v>45195.93960395834</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D134" s="3">
+        <v>2.0202554E7</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I134" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L134" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M134" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2">
+        <v>45195.95246513889</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D135" s="3">
+        <v>2.0182941E7</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I135" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L135" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M135" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2">
+        <v>45195.954863946754</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D136" s="3">
+        <v>2.0183604E7</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I136" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L136" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N136" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2">
+        <v>45195.971982627314</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D137" s="3">
+        <v>2.023341E7</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I137" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L137" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M137" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2">
+        <v>45195.99458677083</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D138" s="3">
+        <v>2.0231004E7</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I138" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L138" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N138" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2">
+        <v>45196.00645782407</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D139" s="3">
+        <v>2.0232706E7</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I139" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L139" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N139" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2">
+        <v>45196.00824848379</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D140" s="3">
+        <v>2.0197092E7</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I140" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L140" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N140" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2">
+        <v>45196.02528578704</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D141" s="3">
+        <v>2.0223047E7</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I141" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L141" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N141" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2">
+        <v>45196.02742627315</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D142" s="3">
+        <v>2.0235182E7</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I142" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L142" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N142" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2">
+        <v>45196.044062824076</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D143" s="3">
+        <v>2.0193531E7</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I143" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K143" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L143" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N143" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2">
+        <v>45196.05096296297</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D144" s="3">
+        <v>2.0236224E7</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I144" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L144" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M144" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2">
+        <v>45196.133810370375</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D145" s="3">
+        <v>2.0181735E7</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I145" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K145" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L145" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N145" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2">
+        <v>45196.2384647338</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D146" s="3">
+        <v>2.0233322E7</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I146" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L146" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M146" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2">
+        <v>45196.33594881944</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D147" s="3">
+        <v>2.0201606E7</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I147" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L147" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M147" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data/quiz230925_tmp.xlsx
+++ b/data/quiz230925_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="420">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1154,6 +1154,123 @@
   </si>
   <si>
     <t>김민선</t>
+  </si>
+  <si>
+    <t>sallylee12300@gmail.com</t>
+  </si>
+  <si>
+    <t>이상은</t>
+  </si>
+  <si>
+    <t>mys714@naver.com</t>
+  </si>
+  <si>
+    <t>문예슬</t>
+  </si>
+  <si>
+    <t>kimtaejung1053@gmail.com</t>
+  </si>
+  <si>
+    <t>김태정</t>
+  </si>
+  <si>
+    <t>ggwoo02211@gmail.com</t>
+  </si>
+  <si>
+    <t>박건우</t>
+  </si>
+  <si>
+    <t>hytree22@naver.com</t>
+  </si>
+  <si>
+    <t>신하영</t>
+  </si>
+  <si>
+    <t>clearrin55@gmail.com</t>
+  </si>
+  <si>
+    <t>김예린</t>
+  </si>
+  <si>
+    <t>jjedalee@gmail.com</t>
+  </si>
+  <si>
+    <t>정재은</t>
+  </si>
+  <si>
+    <t>ggjtt4051@gmail.com</t>
+  </si>
+  <si>
+    <t>경영대학</t>
+  </si>
+  <si>
+    <t>최아린</t>
+  </si>
+  <si>
+    <t>p51008085@gmail.com</t>
+  </si>
+  <si>
+    <t>박준수</t>
+  </si>
+  <si>
+    <t>gksgh2311@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경제학과 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">전한호 </t>
+  </si>
+  <si>
+    <t>qkrwjdwns0526@gmail.com</t>
+  </si>
+  <si>
+    <t>박정준</t>
+  </si>
+  <si>
+    <t>mukyx00@naver.com</t>
+  </si>
+  <si>
+    <t>엄찬우</t>
+  </si>
+  <si>
+    <t>tnwls03270327@gmail.com</t>
+  </si>
+  <si>
+    <t>권수진</t>
+  </si>
+  <si>
+    <t>rkdus0413@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>최가연</t>
+  </si>
+  <si>
+    <t>tjfud05@naver.com</t>
+  </si>
+  <si>
+    <t>박서령</t>
+  </si>
+  <si>
+    <t>qj2qmf@naver.com</t>
+  </si>
+  <si>
+    <t>원주현</t>
+  </si>
+  <si>
+    <t>lsh0409210@gmail.com</t>
+  </si>
+  <si>
+    <t>이시은</t>
+  </si>
+  <si>
+    <t>dlguswls0676@naver.com</t>
+  </si>
+  <si>
+    <t>인문학부 철학전공</t>
+  </si>
+  <si>
+    <t>이현진</t>
   </si>
 </sst>
 </file>
@@ -7456,6 +7573,744 @@
         <v>30</v>
       </c>
     </row>
+    <row r="148">
+      <c r="A148" s="2">
+        <v>45196.398571550926</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D148" s="3">
+        <v>2.0226143E7</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I148" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L148" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N148" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2">
+        <v>45196.44188263889</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D149" s="3">
+        <v>2.0191614E7</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I149" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L149" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M149" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2">
+        <v>45196.46417653935</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D150" s="3">
+        <v>2.023515E7</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I150" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L150" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N150" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2">
+        <v>45196.47999466435</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D151" s="3">
+        <v>2.0232817E7</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I151" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L151" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N151" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2">
+        <v>45196.5171257176</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D152" s="3">
+        <v>2.0232724E7</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I152" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K152" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L152" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N152" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2">
+        <v>45196.52193726852</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D153" s="3">
+        <v>2.0211509E7</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I153" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L153" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M153" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2">
+        <v>45196.53034045139</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" s="3">
+        <v>2.0232134E7</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I154" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L154" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M154" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2">
+        <v>45196.53230247685</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D155" s="3">
+        <v>2.0233051E7</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I155" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L155" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M155" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2">
+        <v>45196.58308078704</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D156" s="3">
+        <v>2.0236726E7</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I156" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L156" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N156" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2">
+        <v>45196.59161690972</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D157" s="3">
+        <v>2.0232842E7</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I157" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L157" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N157" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2">
+        <v>45196.599361307875</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D158" s="3">
+        <v>2.0236129E7</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I158" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L158" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N158" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2">
+        <v>45196.61380690972</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D159" s="3">
+        <v>2.0202547E7</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I159" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L159" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N159" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2">
+        <v>45196.62945278935</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D160" s="3">
+        <v>2.0192703E7</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I160" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K160" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L160" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N160" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2">
+        <v>45196.64145717592</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D161" s="3">
+        <v>2.0236168E7</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I161" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K161" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L161" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M161" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2">
+        <v>45196.64240548611</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D162" s="3">
+        <v>2.0233409E7</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I162" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K162" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L162" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N162" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2">
+        <v>45196.643503495376</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D163" s="3">
+        <v>2.0202735E7</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I163" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L163" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M163" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2">
+        <v>45196.64479150463</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D164" s="3">
+        <v>2.0233726E7</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I164" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L164" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M164" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2">
+        <v>45196.65850315972</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D165" s="3">
+        <v>2.0171078E7</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I165" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K165" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L165" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N165" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data/quiz230925_tmp.xlsx
+++ b/data/quiz230925_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="450">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1271,6 +1271,96 @@
   </si>
   <si>
     <t>이현진</t>
+  </si>
+  <si>
+    <t>lelle0514@naver.com</t>
+  </si>
+  <si>
+    <t>김예진</t>
+  </si>
+  <si>
+    <t>rkdgodbs7148@naver.com</t>
+  </si>
+  <si>
+    <t>강해윤</t>
+  </si>
+  <si>
+    <t>yukuyl0625@naver.com</t>
+  </si>
+  <si>
+    <t>차유결</t>
+  </si>
+  <si>
+    <t>juh0611@naver.com</t>
+  </si>
+  <si>
+    <t>신주희</t>
+  </si>
+  <si>
+    <t>tjdud6975@naver.com</t>
+  </si>
+  <si>
+    <t>청각학전공</t>
+  </si>
+  <si>
+    <t>이서영</t>
+  </si>
+  <si>
+    <t>5542o@naver.com</t>
+  </si>
+  <si>
+    <t>권오준</t>
+  </si>
+  <si>
+    <t>thdrkdud456456@gmail.com</t>
+  </si>
+  <si>
+    <t>송가영</t>
+  </si>
+  <si>
+    <t>kns2266@naver.com</t>
+  </si>
+  <si>
+    <t>사학전공</t>
+  </si>
+  <si>
+    <t>김남석</t>
+  </si>
+  <si>
+    <t>kimcylove@naver.com</t>
+  </si>
+  <si>
+    <t>사회복지학전공</t>
+  </si>
+  <si>
+    <t>김채연</t>
+  </si>
+  <si>
+    <t>wldodxp@naver.com</t>
+  </si>
+  <si>
+    <t>박지영</t>
+  </si>
+  <si>
+    <t>heejae7942@naver.com</t>
+  </si>
+  <si>
+    <t>최희재</t>
+  </si>
+  <si>
+    <t>hyunbin7379@gmail.com</t>
+  </si>
+  <si>
+    <t>경영학부</t>
+  </si>
+  <si>
+    <t>정현빈</t>
+  </si>
+  <si>
+    <t>jkv0125@gmail.com</t>
+  </si>
+  <si>
+    <t>조경빈</t>
   </si>
 </sst>
 </file>
@@ -8311,6 +8401,539 @@
         <v>22</v>
       </c>
     </row>
+    <row r="166">
+      <c r="A166" s="2">
+        <v>45196.665149548615</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D166" s="3">
+        <v>2.0202513E7</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I166" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J166" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K166" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L166" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N166" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2">
+        <v>45196.66659502315</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D167" s="3">
+        <v>2.0181702E7</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I167" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J167" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K167" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L167" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M167" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2">
+        <v>45196.6743737037</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D168" s="3">
+        <v>2.023154E7</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I168" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K168" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L168" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N168" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2">
+        <v>45196.67766971065</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D169" s="3">
+        <v>2.0221051E7</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I169" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K169" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L169" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N169" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2">
+        <v>45196.68047619213</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D170" s="3">
+        <v>2.0203939E7</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I170" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K170" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L170" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N170" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2">
+        <v>45196.683796550926</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D171" s="3">
+        <v>2.0226703E7</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I171" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K171" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L171" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M171" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2">
+        <v>45196.68573724537</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D172" s="3">
+        <v>2.0222968E7</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I172" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J172" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K172" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L172" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N172" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2">
+        <v>45196.73006221065</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D173" s="3">
+        <v>2.0201012E7</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I173" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K173" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L173" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M173" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2">
+        <v>45196.73077372686</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D174" s="3">
+        <v>2.021232E7</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I174" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J174" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K174" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L174" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N174" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2">
+        <v>45196.73559835648</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D175" s="3">
+        <v>2.0212727E7</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I175" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J175" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K175" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L175" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M175" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2">
+        <v>45196.77361505787</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D176" s="3">
+        <v>2.0236301E7</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I176" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J176" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K176" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L176" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M176" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2">
+        <v>45196.78671369213</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D177" s="3">
+        <v>2.0233036E7</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I177" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K177" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L177" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M177" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2">
+        <v>45196.791591284724</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" s="3">
+        <v>2.0212135E7</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I178" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L178" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N178" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
